--- a/FullStackAppTechStacks.xlsx
+++ b/FullStackAppTechStacks.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IN0JRBH\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Appl\SelfLearning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CCFD098-0C7C-4F30-8020-718CA1BF7BD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD87E116-F3AC-463F-A832-0B2D809F2DD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{73A2FA39-BB67-4C56-893F-833D4F4BC4AE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{73A2FA39-BB67-4C56-893F-833D4F4BC4AE}"/>
   </bookViews>
   <sheets>
     <sheet name="CoreSkills" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="37">
   <si>
     <t>Python</t>
   </si>
@@ -151,13 +151,16 @@
   </si>
   <si>
     <t>Nginx</t>
+  </si>
+  <si>
+    <t>Design Patterns-JS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -170,8 +173,28 @@
       <color theme="1"/>
       <name val="MetaPlusLF"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="MetaPlusLF"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -214,6 +237,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -242,7 +277,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -262,6 +297,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -596,10 +642,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1656B17-1EC0-4E98-AB40-E0ED0C1C6036}">
-  <dimension ref="A2:C12"/>
+  <dimension ref="A2:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -609,76 +655,100 @@
     <col min="3" max="3" width="62.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="13" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+    </row>
+    <row r="4" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="15"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+    </row>
+    <row r="5" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+    </row>
+    <row r="6" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="16"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+    </row>
+    <row r="7" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+    </row>
+    <row r="8" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="17"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+    </row>
+    <row r="9" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="11" t="s">
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+    </row>
+    <row r="10" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="18"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+    </row>
+    <row r="11" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="11"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+    </row>
+    <row r="12" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="19"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+    </row>
+    <row r="13" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
+    </row>
+    <row r="14" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="20"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="20"/>
+    </row>
+    <row r="15" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="21"/>
+      <c r="C15" s="21"/>
+    </row>
+    <row r="16" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="21"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -689,8 +759,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{558593DA-99AC-4219-B09B-FBB65882583D}">
   <dimension ref="A3:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -700,44 +770,40 @@
     <col min="3" max="3" width="71.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="13" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+    </row>
+    <row r="5" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="15"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+    </row>
+    <row r="6" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+    </row>
+    <row r="7" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="16"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -893,7 +959,7 @@
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
     </row>
-    <row r="8" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>13</v>
       </c>
